--- a/delta2/lib/winlol_any/winlol_any_patterns.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE5C46-91F9-2746-8031-04DA484CAB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA9375F-1096-9043-A831-76168D9916CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -114,6 +114,45 @@
   </si>
   <si>
     <t>Comsvcs.dll Read LSASS Via Rundll to Create Memory Dump of LSASS</t>
+  </si>
+  <si>
+    <t>rundll-p0001--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>Rundll Pattern Related to Process Memory Dumping</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe']) AND (process_command_line CONTAINS 'minidump')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe']) AND (process_command_line CONTAINS [ 'minidumpw' OR '#24' OR '-24'])</t>
+  </si>
+  <si>
+    <t>rundll-p0002--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>Rundll Called MiniDumpW on Commandline</t>
+  </si>
+  <si>
+    <t>Rundll Called MiniDump on Commandline</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name ENDSWITH  '.dmp') AND(initiating_process_file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe'])</t>
+  </si>
+  <si>
+    <t>Rundll Created Dump File</t>
+  </si>
+  <si>
+    <t>rundll-p0003--file_create-windows_any</t>
+  </si>
+  <si>
+    <t>rundll-p0004--read_process_memory-windows_any-mde</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'lsass.exe') AND (initiating_process_file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe']) AND (initiating_process_command_line CONTAINS [ 'minidump' OR 'minidumpw' OR '#24' OR '-24'])</t>
+  </si>
+  <si>
+    <t>Rundll Dumped LSASS Memory</t>
   </si>
 </sst>
 </file>
@@ -200,17 +239,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H5" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:H5" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H9" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H9" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A365D5D6-45D3-A949-BA4B-4557C33F3D25}" name="delta_method" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A365D5D6-45D3-A949-BA4B-4557C33F3D25}" name="delta_method" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -533,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,6 +720,110 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/delta2/lib/winlol_any/winlol_any_patterns.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA9375F-1096-9043-A831-76168D9916CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44738C79-9154-164B-8B59-ED1A41A5066C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -68,9 +68,6 @@
     <t>delta_method</t>
   </si>
   <si>
-    <t>process_memory_dumping</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>{case_insensitive}(file_name EQUALS 'lsass.exe') AND (initiating_process_command_line CONTAINS 'comsvcs') AND (initiating_process_command_line CONTAINS [ 'minidump' OR 'minidumpw' OR '#24' OR '-24'])</t>
   </si>
   <si>
-    <t>process_memory_dumping-lsass</t>
-  </si>
-  <si>
     <t>Comsvcs.dll Used to Create a Dump File</t>
   </si>
   <si>
@@ -153,6 +147,84 @@
   </si>
   <si>
     <t>Rundll Dumped LSASS Memory</t>
+  </si>
+  <si>
+    <t>nltest-p0001--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>["t1482"]</t>
+  </si>
+  <si>
+    <t>Nltest Dclist Command</t>
+  </si>
+  <si>
+    <t>Nltest Recon/Disco Pattern</t>
+  </si>
+  <si>
+    <t>nltest-p0002--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>["t1018"]</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/dclist'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/domain_trusts'])</t>
+  </si>
+  <si>
+    <t>Nltest Domain Trust Command Run</t>
+  </si>
+  <si>
+    <t>nltest-p0003--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/trusted_domains'])</t>
+  </si>
+  <si>
+    <t>Nltest Trusted Domains  Command Run</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/dsgetdc'])</t>
+  </si>
+  <si>
+    <t>Nltest Dsgetdc Command</t>
+  </si>
+  <si>
+    <t>nltest-p0004--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/dnsgetdc'])</t>
+  </si>
+  <si>
+    <t>Nltest Dnsgetdc Command</t>
+  </si>
+  <si>
+    <t>nltest-p0005--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>ad_enum-domain_trust</t>
+  </si>
+  <si>
+    <t>ad_enum-disco_dc</t>
+  </si>
+  <si>
+    <t>process_mem_dmp</t>
+  </si>
+  <si>
+    <t>process_mem_dmp-lsass</t>
+  </si>
+  <si>
+    <t>ad_enum</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line NOT CONTAINS 'nltest' ) AND (file_name NOT EQUALS 'nltest.exe') AND (process_command_line CONTAINS ['/dclist' OR '/domain_trusts' OR '/trusted_domains' OR '/dsgetdc' OR '/dnsgetdc'])</t>
+  </si>
+  <si>
+    <t>Renamed Nltest File Ad Enum Command Run</t>
+  </si>
+  <si>
+    <t>nltest-p0006--process_create-windows_any</t>
   </si>
 </sst>
 </file>
@@ -239,8 +311,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H9" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H9" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H15" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
@@ -572,21 +644,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.1640625" customWidth="1"/>
     <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -624,10 +696,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -636,24 +708,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -662,24 +734,24 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -688,24 +760,24 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -714,24 +786,24 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -740,24 +812,24 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -766,24 +838,24 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -792,24 +864,24 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -818,10 +890,154 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib/winlol_any/winlol_any_patterns.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44738C79-9154-164B-8B59-ED1A41A5066C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93830332-B0D0-0E49-821A-463E6DB43398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="87">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -225,6 +225,78 @@
   </si>
   <si>
     <t>nltest-p0006--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>lsass-p0001--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-Process' AND 'lsass'])</t>
+  </si>
+  <si>
+    <t>Powershell Get-Process LSASS Command</t>
+  </si>
+  <si>
+    <t>LSASS Memory Dumping</t>
+  </si>
+  <si>
+    <t>lsass-p0002--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'lsass.exe') AND (account_name NOT EQUALS 'system')</t>
+  </si>
+  <si>
+    <t>LSASS Execution From Non System Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(file_name EQUALS 'lsass.exe') AND( account_name  NOT EQUALS 'system') </t>
+  </si>
+  <si>
+    <t>LSASS Memory Read Non System Account</t>
+  </si>
+  <si>
+    <t>lsass-p0003--read_process_memory-windows_any-mde</t>
+  </si>
+  <si>
+    <t>lsass-p0004--file_create-windows_any</t>
+  </si>
+  <si>
+    <t>LSASS DMP File Created</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name CONTAINS ['lsass' AND '.dmp'])</t>
+  </si>
+  <si>
+    <t>lsass-p0005--process_create-windows_any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSASS DMP File Created </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['LSASS' AND '.dmp']) OR (process_command_line CONTAINS 'lsass.dmp')</t>
+  </si>
+  <si>
+    <t>lsass-p0006--read_process_memory-windows_any-mde</t>
+  </si>
+  <si>
+    <t>Large LSASS Memory Read</t>
+  </si>
+  <si>
+    <t>lsass-p0007--read_process_memory-windows_any-mde</t>
+  </si>
+  <si>
+    <t>Large LSASS Memory Read From Rundll</t>
+  </si>
+  <si>
+    <t>lsass-p0008--read_process_memory-windows_any-mde</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'lsass.exe') AND( bytes_read GREATER THAN '20mb') AND (initiating_process_file_name EQUALS  'taskmgr.exe')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'lsass.exe') AND( bytes_read GREATER THAN '20mb') AND (initiating_process_file_name EQUALS [ 'rundll32.exe' OR 'rundll64.exe'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(file_name EQUALS 'lsass.exe') AND( bytes_read GREATER THAN '20mb') </t>
   </si>
 </sst>
 </file>
@@ -311,8 +383,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H15" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H23" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H23" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
@@ -644,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,6 +1112,214 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/delta2/lib/winlol_any/winlol_any_patterns.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93830332-B0D0-0E49-821A-463E6DB43398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4122C10-64D2-534A-9020-9DF04CC2771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="winlol" sheetId="1" r:id="rId1"/>
@@ -385,6 +385,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H23" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:H23" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
+    <sortCondition ref="A1:A23"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
@@ -719,7 +722,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,18 +867,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -884,24 +887,24 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -910,24 +913,24 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -936,15 +939,15 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -953,7 +956,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -962,111 +965,119 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -1075,38 +1086,38 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>40</v>
@@ -1114,120 +1125,112 @@
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
@@ -1236,24 +1239,24 @@
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
@@ -1262,24 +1265,24 @@
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -1288,15 +1291,15 @@
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -1305,7 +1308,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -1314,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib/winlol_any/winlol_any_patterns.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4122C10-64D2-534A-9020-9DF04CC2771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C96D86-8288-9F43-B9B2-E7C1A9B2120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -167,36 +167,21 @@
     <t>["t1018"]</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/dclist'])</t>
-  </si>
-  <si>
-    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/domain_trusts'])</t>
-  </si>
-  <si>
     <t>Nltest Domain Trust Command Run</t>
   </si>
   <si>
     <t>nltest-p0003--process_create-windows_any</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/trusted_domains'])</t>
-  </si>
-  <si>
     <t>Nltest Trusted Domains  Command Run</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/dsgetdc'])</t>
-  </si>
-  <si>
     <t>Nltest Dsgetdc Command</t>
   </si>
   <si>
     <t>nltest-p0004--process_create-windows_any</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' , '/dnsgetdc'])</t>
-  </si>
-  <si>
     <t>Nltest Dnsgetdc Command</t>
   </si>
   <si>
@@ -297,6 +282,39 @@
   </si>
   <si>
     <t xml:space="preserve">{case_insensitive}(file_name EQUALS 'lsass.exe') AND( bytes_read GREATER THAN '20mb') </t>
+  </si>
+  <si>
+    <t>cmdkey-p0001-process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest'  AND  '/dclist'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest'  AND  '/domain_trusts'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest'  AND '/trusted_domains'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest' AND  '/dsgetdc'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['nltest'  AND '/dnsgetdc'])</t>
+  </si>
+  <si>
+    <t>["t1003.005"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cmdkey List Cached Creds </t>
+  </si>
+  <si>
+    <t>Disco Creds</t>
+  </si>
+  <si>
+    <t>disco_creds-cached</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['cmdkey'  AND  '/list'])</t>
   </si>
 </sst>
 </file>
@@ -383,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H23" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H23" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H24" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
     <sortCondition ref="A1:A23"/>
   </sortState>
@@ -719,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -797,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -823,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -849,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -869,16 +887,16 @@
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -887,24 +905,24 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -913,24 +931,24 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -939,24 +957,24 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -965,24 +983,24 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -991,24 +1009,24 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -1017,24 +1035,24 @@
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -1043,24 +1061,24 @@
         <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -1069,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1083,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>42</v>
@@ -1107,17 +1125,17 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>40</v>
@@ -1125,23 +1143,23 @@
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>40</v>
@@ -1149,23 +1167,23 @@
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>40</v>
@@ -1173,23 +1191,23 @@
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>40</v>
@@ -1197,23 +1215,23 @@
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
@@ -1227,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -1253,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
@@ -1279,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
@@ -1305,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>35</v>
@@ -1321,6 +1339,32 @@
       </c>
       <c r="H23" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
